--- a/data/GDP_Australia.xlsx
+++ b/data/GDP_Australia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{571A2123-8CF3-45A5-9245-DE7AF1CDD2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6858B2-F85B-455E-9BBB-8702563E5A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D4A1CF74-2247-42E2-9EEA-8DD8A2168AF8}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15990" xr2:uid="{D4A1CF74-2247-42E2-9EEA-8DD8A2168AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Time Period</t>
   </si>
@@ -177,13 +177,49 @@
   </si>
   <si>
     <t>GDP/Capita</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +231,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,10 +262,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E696A7C-3090-4C0C-8892-93FCD0795AE2}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,490 +629,623 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>369661</v>
-      </c>
-      <c r="C2" s="2">
-        <v>16044</v>
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3">
+        <v>314838</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>391216</v>
-      </c>
-      <c r="C3" s="2">
-        <v>16917</v>
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
+        <v>340575</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15460</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>393042</v>
-      </c>
-      <c r="C4" s="2">
-        <v>16929</v>
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
+        <v>345512</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15633</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>416029</v>
-      </c>
-      <c r="C5" s="2">
-        <v>17859</v>
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <v>365403</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16482</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>386882</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16531</v>
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <v>341094</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15319</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>403742</v>
-      </c>
-      <c r="C7" s="2">
-        <v>17200</v>
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3">
+        <v>366641</v>
+      </c>
+      <c r="C7" s="3">
+        <v>16414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>402117</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17068</v>
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3">
+        <v>372918</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16626</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>421533</v>
-      </c>
-      <c r="C9" s="2">
-        <v>17833</v>
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3">
+        <v>388419</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>392282</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16522</v>
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>358492</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15836</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>408800</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17167</v>
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3">
+        <v>381023</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16763</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>411271</v>
-      </c>
-      <c r="C12" s="2">
-        <v>17207</v>
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3">
+        <v>379954</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16642</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>427741</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17836</v>
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3">
+        <v>396614</v>
+      </c>
+      <c r="C13" s="3">
+        <v>17301</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>398018</v>
+        <v>369661</v>
       </c>
       <c r="C14" s="2">
-        <v>16515</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>421906</v>
+        <v>391216</v>
       </c>
       <c r="C15" s="2">
-        <v>17444</v>
+        <v>16917</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>423729</v>
+        <v>393042</v>
       </c>
       <c r="C16" s="2">
-        <v>17442</v>
+        <v>16929</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>456348</v>
+        <v>416029</v>
       </c>
       <c r="C17" s="2">
-        <v>18718</v>
+        <v>17859</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>429749</v>
+        <v>386882</v>
       </c>
       <c r="C18" s="2">
-        <v>17536</v>
+        <v>16531</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>449551</v>
+        <v>403742</v>
       </c>
       <c r="C19" s="2">
-        <v>18283</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>451969</v>
+        <v>402117</v>
       </c>
       <c r="C20" s="2">
-        <v>18309</v>
+        <v>17068</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>472305</v>
+        <v>421533</v>
       </c>
       <c r="C21" s="2">
-        <v>19080</v>
+        <v>17833</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>446656</v>
+        <v>392282</v>
       </c>
       <c r="C22" s="2">
-        <v>17955</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>473598</v>
+        <v>408800</v>
       </c>
       <c r="C23" s="2">
-        <v>18975</v>
+        <v>17167</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2">
-        <v>476753</v>
+        <v>411271</v>
       </c>
       <c r="C24" s="2">
-        <v>19022</v>
+        <v>17207</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>501374</v>
+        <v>427741</v>
       </c>
       <c r="C25" s="2">
-        <v>19942</v>
+        <v>17836</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>471736</v>
+        <v>398018</v>
       </c>
       <c r="C26" s="2">
-        <v>18675</v>
+        <v>16515</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2">
-        <v>500179</v>
+        <v>421906</v>
       </c>
       <c r="C27" s="2">
-        <v>19746</v>
+        <v>17444</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2">
-        <v>503289</v>
+        <v>423729</v>
       </c>
       <c r="C28" s="2">
-        <v>19789</v>
+        <v>17442</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>522443</v>
+        <v>456348</v>
       </c>
       <c r="C29" s="2">
-        <v>20475</v>
+        <v>18718</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2">
-        <v>488115</v>
+        <v>429749</v>
       </c>
       <c r="C30" s="2">
-        <v>19050</v>
+        <v>17536</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>470751</v>
+        <v>449551</v>
       </c>
       <c r="C31" s="2">
-        <v>18357</v>
+        <v>18283</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
-        <v>488221</v>
+        <v>451969</v>
       </c>
       <c r="C32" s="2">
-        <v>19050</v>
+        <v>18309</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
-        <v>531962</v>
+        <v>472305</v>
       </c>
       <c r="C33" s="2">
-        <v>20759</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
-        <v>513235</v>
+        <v>446656</v>
       </c>
       <c r="C34" s="2">
-        <v>20011</v>
+        <v>17955</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>555484</v>
+        <v>473598</v>
       </c>
       <c r="C35" s="2">
-        <v>21631</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
-        <v>547326</v>
+        <v>476753</v>
       </c>
       <c r="C36" s="2">
-        <v>21297</v>
+        <v>19022</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2">
-        <v>590493</v>
+        <v>501374</v>
       </c>
       <c r="C37" s="2">
-        <v>22917</v>
+        <v>19942</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2">
-        <v>572077</v>
+        <v>471736</v>
       </c>
       <c r="C38" s="2">
-        <v>22084</v>
+        <v>18675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2">
-        <v>623325</v>
+        <v>500179</v>
       </c>
       <c r="C39" s="2">
-        <v>23965</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2">
-        <v>624333</v>
+        <v>503289</v>
       </c>
       <c r="C40" s="2">
-        <v>23870</v>
+        <v>19789</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2">
-        <v>662870</v>
+        <v>522443</v>
       </c>
       <c r="C41" s="2">
-        <v>25204</v>
+        <v>20475</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2">
-        <v>626542</v>
+        <v>488115</v>
       </c>
       <c r="C42" s="2">
-        <v>23655</v>
+        <v>19050</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>650095</v>
+        <v>470751</v>
       </c>
       <c r="C43" s="2">
-        <v>24409</v>
+        <v>18357</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2">
-        <v>653876</v>
+        <v>488221</v>
       </c>
       <c r="C44" s="2">
-        <v>24380</v>
+        <v>19050</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2">
+        <v>531962</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2">
+        <v>513235</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2">
+        <v>555484</v>
+      </c>
+      <c r="C47" s="2">
+        <v>21631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2">
+        <v>547326</v>
+      </c>
+      <c r="C48" s="2">
+        <v>21297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2">
+        <v>590493</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22917</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2">
+        <v>572077</v>
+      </c>
+      <c r="C50" s="2">
+        <v>22084</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2">
+        <v>623325</v>
+      </c>
+      <c r="C51" s="2">
+        <v>23965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2">
+        <v>624333</v>
+      </c>
+      <c r="C52" s="2">
+        <v>23870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>662870</v>
+      </c>
+      <c r="C53" s="2">
+        <v>25204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>626542</v>
+      </c>
+      <c r="C54" s="2">
+        <v>23655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2">
+        <v>650095</v>
+      </c>
+      <c r="C55" s="2">
+        <v>24409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>653876</v>
+      </c>
+      <c r="C56" s="2">
+        <v>24380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B57" s="2">
         <v>690960</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C57" s="2">
         <v>25617</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>